--- a/济南工程一览.xlsx
+++ b/济南工程一览.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="32">
   <si>
     <t>北郊热电</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -119,9 +119,50 @@
   </si>
   <si>
     <t xml:space="preserve">表成功 78/80.
-联网失败316户，1#、9#。
-数据失败181户，6#、8#。
-无记录82户，8#。
+数据失败2户，26#3单元-601 602。
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>绿地滨河凡尔赛公馆</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>外海中央花园</t>
+  </si>
+  <si>
+    <t xml:space="preserve">成功 106/149.
+联网失败149户，17#1单元0104。
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">成功 467/843.
+联网失败1户，17#1单元0104。
+数据失败375户，10#、13#、14#、17#、18#、31#、34#。
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">成功 467/843.
+无记录177户，10#、11#、12#、13#-1-701、7#、8#。
+数据失败105户，11#、12#、13#、14#、5#、7#、9#。
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">成功 0/779.
+联网失败779户，17#1单元0104。
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新世界阳光花园</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">成功 1429/1438.
+数据失败9户，12#、14#、20#。
 </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -146,7 +187,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -156,6 +197,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -187,10 +234,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -498,10 +546,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:I45"/>
+  <dimension ref="A2:I84"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="F39" sqref="F39"/>
+    <sheetView tabSelected="1" topLeftCell="A46" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K73" sqref="K73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -517,113 +565,113 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A3" s="1"/>
-      <c r="B3" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D3" s="3" t="s">
+      <c r="B3" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B5" s="1"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
-      <c r="G5" s="3"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A6" s="1"/>
       <c r="B6" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
-      <c r="G6" s="3"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A7" s="1"/>
       <c r="B7" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
-      <c r="G7" s="3"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A8" s="1"/>
       <c r="B8" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A9" s="1"/>
-      <c r="B9" s="2" t="s">
+      <c r="B9" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
-      <c r="G9" s="3"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A10" s="1"/>
-      <c r="B10" s="2" t="s">
+      <c r="B10" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
-      <c r="G10" s="3"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="4"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A11" s="1"/>
       <c r="B11" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="4"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A12" s="1"/>
-      <c r="B12" s="2" t="s">
+      <c r="B12" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="4"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A13" s="1"/>
-      <c r="B13" s="2" t="s">
+      <c r="B13" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4"/>
+      <c r="G13" s="4"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A14" s="1"/>
@@ -633,7 +681,7 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A15" s="1"/>
-      <c r="B15" s="2" t="s">
+      <c r="B15" s="3" t="s">
         <v>11</v>
       </c>
     </row>
@@ -645,8 +693,8 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A17" s="1"/>
-      <c r="B17" s="2" t="s">
-        <v>13</v>
+      <c r="B17" s="3" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.15">
@@ -707,51 +755,51 @@
       </c>
     </row>
     <row r="33" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="C33" s="3" t="s">
+      <c r="C33" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="D33" s="3"/>
-      <c r="E33" s="3"/>
-      <c r="F33" s="3"/>
-      <c r="G33" s="3"/>
-      <c r="H33" s="3"/>
-      <c r="I33" s="3"/>
+      <c r="D33" s="4"/>
+      <c r="E33" s="4"/>
+      <c r="F33" s="4"/>
+      <c r="G33" s="4"/>
+      <c r="H33" s="4"/>
+      <c r="I33" s="4"/>
     </row>
     <row r="34" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="C34" s="3"/>
-      <c r="D34" s="3"/>
-      <c r="E34" s="3"/>
-      <c r="F34" s="3"/>
-      <c r="G34" s="3"/>
-      <c r="H34" s="3"/>
-      <c r="I34" s="3"/>
+      <c r="C34" s="4"/>
+      <c r="D34" s="4"/>
+      <c r="E34" s="4"/>
+      <c r="F34" s="4"/>
+      <c r="G34" s="4"/>
+      <c r="H34" s="4"/>
+      <c r="I34" s="4"/>
     </row>
     <row r="35" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="C35" s="3"/>
-      <c r="D35" s="3"/>
-      <c r="E35" s="3"/>
-      <c r="F35" s="3"/>
-      <c r="G35" s="3"/>
-      <c r="H35" s="3"/>
-      <c r="I35" s="3"/>
+      <c r="C35" s="4"/>
+      <c r="D35" s="4"/>
+      <c r="E35" s="4"/>
+      <c r="F35" s="4"/>
+      <c r="G35" s="4"/>
+      <c r="H35" s="4"/>
+      <c r="I35" s="4"/>
     </row>
     <row r="36" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="C36" s="3"/>
-      <c r="D36" s="3"/>
-      <c r="E36" s="3"/>
-      <c r="F36" s="3"/>
-      <c r="G36" s="3"/>
-      <c r="H36" s="3"/>
-      <c r="I36" s="3"/>
+      <c r="C36" s="4"/>
+      <c r="D36" s="4"/>
+      <c r="E36" s="4"/>
+      <c r="F36" s="4"/>
+      <c r="G36" s="4"/>
+      <c r="H36" s="4"/>
+      <c r="I36" s="4"/>
     </row>
     <row r="37" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="C37" s="3"/>
-      <c r="D37" s="3"/>
-      <c r="E37" s="3"/>
-      <c r="F37" s="3"/>
-      <c r="G37" s="3"/>
-      <c r="H37" s="3"/>
-      <c r="I37" s="3"/>
+      <c r="C37" s="4"/>
+      <c r="D37" s="4"/>
+      <c r="E37" s="4"/>
+      <c r="F37" s="4"/>
+      <c r="G37" s="4"/>
+      <c r="H37" s="4"/>
+      <c r="I37" s="4"/>
     </row>
     <row r="40" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B40" s="2" t="s">
@@ -759,57 +807,322 @@
       </c>
     </row>
     <row r="41" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="C41" s="3" t="s">
+      <c r="C41" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="D41" s="3"/>
-      <c r="E41" s="3"/>
-      <c r="F41" s="3"/>
-      <c r="G41" s="3"/>
-      <c r="H41" s="3"/>
-      <c r="I41" s="3"/>
+      <c r="D41" s="4"/>
+      <c r="E41" s="4"/>
+      <c r="F41" s="4"/>
+      <c r="G41" s="4"/>
+      <c r="H41" s="4"/>
+      <c r="I41" s="4"/>
     </row>
     <row r="42" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="C42" s="3"/>
-      <c r="D42" s="3"/>
-      <c r="E42" s="3"/>
-      <c r="F42" s="3"/>
-      <c r="G42" s="3"/>
-      <c r="H42" s="3"/>
-      <c r="I42" s="3"/>
+      <c r="C42" s="4"/>
+      <c r="D42" s="4"/>
+      <c r="E42" s="4"/>
+      <c r="F42" s="4"/>
+      <c r="G42" s="4"/>
+      <c r="H42" s="4"/>
+      <c r="I42" s="4"/>
     </row>
     <row r="43" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="C43" s="3"/>
-      <c r="D43" s="3"/>
-      <c r="E43" s="3"/>
-      <c r="F43" s="3"/>
-      <c r="G43" s="3"/>
-      <c r="H43" s="3"/>
-      <c r="I43" s="3"/>
+      <c r="C43" s="4"/>
+      <c r="D43" s="4"/>
+      <c r="E43" s="4"/>
+      <c r="F43" s="4"/>
+      <c r="G43" s="4"/>
+      <c r="H43" s="4"/>
+      <c r="I43" s="4"/>
     </row>
     <row r="44" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="C44" s="3"/>
-      <c r="D44" s="3"/>
-      <c r="E44" s="3"/>
-      <c r="F44" s="3"/>
-      <c r="G44" s="3"/>
-      <c r="H44" s="3"/>
-      <c r="I44" s="3"/>
+      <c r="C44" s="4"/>
+      <c r="D44" s="4"/>
+      <c r="E44" s="4"/>
+      <c r="F44" s="4"/>
+      <c r="G44" s="4"/>
+      <c r="H44" s="4"/>
+      <c r="I44" s="4"/>
     </row>
     <row r="45" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="C45" s="3"/>
-      <c r="D45" s="3"/>
-      <c r="E45" s="3"/>
-      <c r="F45" s="3"/>
-      <c r="G45" s="3"/>
-      <c r="H45" s="3"/>
-      <c r="I45" s="3"/>
+      <c r="C45" s="4"/>
+      <c r="D45" s="4"/>
+      <c r="E45" s="4"/>
+      <c r="F45" s="4"/>
+      <c r="G45" s="4"/>
+      <c r="H45" s="4"/>
+      <c r="I45" s="4"/>
+    </row>
+    <row r="47" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B47" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="48" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="C48" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D48" s="4"/>
+      <c r="E48" s="4"/>
+      <c r="F48" s="4"/>
+      <c r="G48" s="4"/>
+      <c r="H48" s="4"/>
+      <c r="I48" s="4"/>
+    </row>
+    <row r="49" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="C49" s="4"/>
+      <c r="D49" s="4"/>
+      <c r="E49" s="4"/>
+      <c r="F49" s="4"/>
+      <c r="G49" s="4"/>
+      <c r="H49" s="4"/>
+      <c r="I49" s="4"/>
+    </row>
+    <row r="50" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="C50" s="4"/>
+      <c r="D50" s="4"/>
+      <c r="E50" s="4"/>
+      <c r="F50" s="4"/>
+      <c r="G50" s="4"/>
+      <c r="H50" s="4"/>
+      <c r="I50" s="4"/>
+    </row>
+    <row r="51" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="C51" s="4"/>
+      <c r="D51" s="4"/>
+      <c r="E51" s="4"/>
+      <c r="F51" s="4"/>
+      <c r="G51" s="4"/>
+      <c r="H51" s="4"/>
+      <c r="I51" s="4"/>
+    </row>
+    <row r="52" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="C52" s="4"/>
+      <c r="D52" s="4"/>
+      <c r="E52" s="4"/>
+      <c r="F52" s="4"/>
+      <c r="G52" s="4"/>
+      <c r="H52" s="4"/>
+      <c r="I52" s="4"/>
+    </row>
+    <row r="55" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B55" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="56" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="C56" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D56" s="4"/>
+      <c r="E56" s="4"/>
+      <c r="F56" s="4"/>
+      <c r="G56" s="4"/>
+      <c r="H56" s="4"/>
+      <c r="I56" s="4"/>
+    </row>
+    <row r="57" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="C57" s="4"/>
+      <c r="D57" s="4"/>
+      <c r="E57" s="4"/>
+      <c r="F57" s="4"/>
+      <c r="G57" s="4"/>
+      <c r="H57" s="4"/>
+      <c r="I57" s="4"/>
+    </row>
+    <row r="58" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="C58" s="4"/>
+      <c r="D58" s="4"/>
+      <c r="E58" s="4"/>
+      <c r="F58" s="4"/>
+      <c r="G58" s="4"/>
+      <c r="H58" s="4"/>
+      <c r="I58" s="4"/>
+    </row>
+    <row r="59" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="C59" s="4"/>
+      <c r="D59" s="4"/>
+      <c r="E59" s="4"/>
+      <c r="F59" s="4"/>
+      <c r="G59" s="4"/>
+      <c r="H59" s="4"/>
+      <c r="I59" s="4"/>
+    </row>
+    <row r="60" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="C60" s="4"/>
+      <c r="D60" s="4"/>
+      <c r="E60" s="4"/>
+      <c r="F60" s="4"/>
+      <c r="G60" s="4"/>
+      <c r="H60" s="4"/>
+      <c r="I60" s="4"/>
+    </row>
+    <row r="63" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B63" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="64" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="C64" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D64" s="4"/>
+      <c r="E64" s="4"/>
+      <c r="F64" s="4"/>
+      <c r="G64" s="4"/>
+      <c r="H64" s="4"/>
+      <c r="I64" s="4"/>
+    </row>
+    <row r="65" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="C65" s="4"/>
+      <c r="D65" s="4"/>
+      <c r="E65" s="4"/>
+      <c r="F65" s="4"/>
+      <c r="G65" s="4"/>
+      <c r="H65" s="4"/>
+      <c r="I65" s="4"/>
+    </row>
+    <row r="66" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="C66" s="4"/>
+      <c r="D66" s="4"/>
+      <c r="E66" s="4"/>
+      <c r="F66" s="4"/>
+      <c r="G66" s="4"/>
+      <c r="H66" s="4"/>
+      <c r="I66" s="4"/>
+    </row>
+    <row r="67" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="C67" s="4"/>
+      <c r="D67" s="4"/>
+      <c r="E67" s="4"/>
+      <c r="F67" s="4"/>
+      <c r="G67" s="4"/>
+      <c r="H67" s="4"/>
+      <c r="I67" s="4"/>
+    </row>
+    <row r="68" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="C68" s="4"/>
+      <c r="D68" s="4"/>
+      <c r="E68" s="4"/>
+      <c r="F68" s="4"/>
+      <c r="G68" s="4"/>
+      <c r="H68" s="4"/>
+      <c r="I68" s="4"/>
+    </row>
+    <row r="71" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B71" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="72" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="C72" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D72" s="4"/>
+      <c r="E72" s="4"/>
+      <c r="F72" s="4"/>
+      <c r="G72" s="4"/>
+      <c r="H72" s="4"/>
+      <c r="I72" s="4"/>
+    </row>
+    <row r="73" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="C73" s="4"/>
+      <c r="D73" s="4"/>
+      <c r="E73" s="4"/>
+      <c r="F73" s="4"/>
+      <c r="G73" s="4"/>
+      <c r="H73" s="4"/>
+      <c r="I73" s="4"/>
+    </row>
+    <row r="74" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="C74" s="4"/>
+      <c r="D74" s="4"/>
+      <c r="E74" s="4"/>
+      <c r="F74" s="4"/>
+      <c r="G74" s="4"/>
+      <c r="H74" s="4"/>
+      <c r="I74" s="4"/>
+    </row>
+    <row r="75" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="C75" s="4"/>
+      <c r="D75" s="4"/>
+      <c r="E75" s="4"/>
+      <c r="F75" s="4"/>
+      <c r="G75" s="4"/>
+      <c r="H75" s="4"/>
+      <c r="I75" s="4"/>
+    </row>
+    <row r="76" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="C76" s="4"/>
+      <c r="D76" s="4"/>
+      <c r="E76" s="4"/>
+      <c r="F76" s="4"/>
+      <c r="G76" s="4"/>
+      <c r="H76" s="4"/>
+      <c r="I76" s="4"/>
+    </row>
+    <row r="79" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B79" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="80" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="C80" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="D80" s="4"/>
+      <c r="E80" s="4"/>
+      <c r="F80" s="4"/>
+      <c r="G80" s="4"/>
+      <c r="H80" s="4"/>
+      <c r="I80" s="4"/>
+    </row>
+    <row r="81" spans="3:9" x14ac:dyDescent="0.15">
+      <c r="C81" s="4"/>
+      <c r="D81" s="4"/>
+      <c r="E81" s="4"/>
+      <c r="F81" s="4"/>
+      <c r="G81" s="4"/>
+      <c r="H81" s="4"/>
+      <c r="I81" s="4"/>
+    </row>
+    <row r="82" spans="3:9" x14ac:dyDescent="0.15">
+      <c r="C82" s="4"/>
+      <c r="D82" s="4"/>
+      <c r="E82" s="4"/>
+      <c r="F82" s="4"/>
+      <c r="G82" s="4"/>
+      <c r="H82" s="4"/>
+      <c r="I82" s="4"/>
+    </row>
+    <row r="83" spans="3:9" x14ac:dyDescent="0.15">
+      <c r="C83" s="4"/>
+      <c r="D83" s="4"/>
+      <c r="E83" s="4"/>
+      <c r="F83" s="4"/>
+      <c r="G83" s="4"/>
+      <c r="H83" s="4"/>
+      <c r="I83" s="4"/>
+    </row>
+    <row r="84" spans="3:9" x14ac:dyDescent="0.15">
+      <c r="C84" s="4"/>
+      <c r="D84" s="4"/>
+      <c r="E84" s="4"/>
+      <c r="F84" s="4"/>
+      <c r="G84" s="4"/>
+      <c r="H84" s="4"/>
+      <c r="I84" s="4"/>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="8">
+    <mergeCell ref="C64:I68"/>
+    <mergeCell ref="C72:I76"/>
+    <mergeCell ref="C80:I84"/>
     <mergeCell ref="D3:G13"/>
     <mergeCell ref="C33:I37"/>
     <mergeCell ref="C41:I45"/>
+    <mergeCell ref="C48:I52"/>
+    <mergeCell ref="C56:I60"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
